--- a/instance/zyjk/CHC/信创/web/5G.xlsx
+++ b/instance/zyjk/CHC/信创/web/5G.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CHC" sheetId="1" r:id="rId1"/>
@@ -2330,15 +2330,15 @@
   <sheetPr/>
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="53.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="36.9107142857143" customWidth="1"/>
     <col min="2" max="2" width="43.4464285714286" customWidth="1"/>
     <col min="3" max="3" width="23.5089285714286" customWidth="1"/>
     <col min="4" max="4" width="22.6071428571429" customWidth="1"/>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="18.35" spans="1:4">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" ht="18.35" spans="1:4">
+    <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>90</v>
       </c>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" ht="18.35" spans="1:4">
+    <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
         <v>210</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" ht="18.35" spans="1:4">
+    <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
         <v>216</v>
       </c>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" ht="18.35" spans="1:4">
+    <row r="119" spans="1:4">
       <c r="A119" s="2" t="s">
         <v>242</v>
       </c>
@@ -4692,10 +4692,10 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>

--- a/instance/zyjk/CHC/信创/web/5G.xlsx
+++ b/instance/zyjk/CHC/信创/web/5G.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="411">
   <si>
     <t>表名</t>
   </si>
@@ -82,7 +82,7 @@
     <t>评估链接接口日志表</t>
   </si>
   <si>
-    <t>标准版</t>
+    <t>标准版，5G不用</t>
   </si>
   <si>
     <t>ASSESS_MEDICATION</t>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>食物项目表</t>
+  </si>
+  <si>
+    <t>标准版，5G不要</t>
   </si>
   <si>
     <t>HEALTH_OUTPATIENT_REGISTRATION</t>
@@ -1271,7 +1274,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1291,6 +1294,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1781,152 +1791,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1940,6 +1950,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2331,9 +2357,9 @@
   <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -2359,2044 +2385,2044 @@
       </c>
     </row>
     <row r="2" ht="18.35" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="18.35" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" ht="18.35" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" ht="18.35" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" ht="18.35" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" ht="18.35" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" ht="18.35" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" ht="18.35" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" ht="18.35" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" ht="18.35" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" ht="18.35" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" ht="18.35" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" ht="18.35" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" ht="18.35" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="C15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" ht="18.35" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" ht="18.35" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2"/>
+      <c r="C17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" ht="18.35" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" ht="18.35" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2"/>
+      <c r="C19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" ht="18.35" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" ht="18.35" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2"/>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" ht="18.35" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="C22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" ht="18.35" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2"/>
+      <c r="C23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" ht="18.35" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="C24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" ht="18.35" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="C25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" ht="18.35" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2"/>
+      <c r="C26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" ht="18.35" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2"/>
+      <c r="C27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" ht="18.35" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2"/>
+      <c r="C28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" ht="18.35" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2"/>
+      <c r="C29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" ht="18.35" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="C30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" ht="18.35" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2"/>
+      <c r="C31" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" ht="18.35" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" ht="18.35" spans="1:4">
+      <c r="A33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" ht="18.35" spans="1:4">
+      <c r="A34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" ht="18.35" spans="1:4">
+      <c r="A35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" ht="18.35" spans="1:4">
+      <c r="A36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" ht="18.35" spans="1:4">
+      <c r="A37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" ht="18.35" spans="1:4">
+      <c r="A38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" ht="18.35" spans="1:4">
+      <c r="A39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" ht="18.35" spans="1:4">
+      <c r="A40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" ht="18.35" spans="1:4">
+      <c r="A41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" ht="18.35" spans="1:4">
+      <c r="A42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" ht="18.35" spans="1:4">
+      <c r="A43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" ht="18.35" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" ht="18.35" spans="1:4">
+      <c r="A45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" ht="18.35" spans="1:4">
+      <c r="A46" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" ht="18.35" spans="1:4">
+      <c r="A47" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" ht="18.35" spans="1:4">
+      <c r="A48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" ht="18.35" spans="1:4">
+      <c r="A49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" ht="18.35" spans="1:4">
+      <c r="A50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" ht="18.35" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" ht="18.35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" ht="18.35" spans="1:4">
+      <c r="A51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" ht="18.35" spans="1:4">
+      <c r="A52" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" ht="18.35" spans="1:4">
+      <c r="A53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" ht="18.35" spans="1:4">
+      <c r="A54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" ht="18.35" spans="1:4">
+      <c r="A55" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" ht="18.35" spans="1:4">
+      <c r="A56" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" ht="18.35" spans="1:4">
+      <c r="A57" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" ht="18.35" spans="1:4">
+      <c r="A58" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" ht="18.35" spans="1:4">
+      <c r="A59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" ht="18.35" spans="1:4">
+      <c r="A60" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" ht="18.35" spans="1:4">
+      <c r="A61" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" ht="18.35" spans="1:4">
+      <c r="A62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" ht="18.35" spans="1:4">
+      <c r="A63" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" ht="18.35" spans="1:4">
+      <c r="A64" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" ht="18.35" spans="1:4">
+      <c r="A65" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" ht="18.35" spans="1:4">
+      <c r="A66" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" ht="18.35" spans="1:4">
+      <c r="A67" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" ht="18.35" spans="1:4">
+      <c r="A68" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" ht="18.35" spans="1:4">
+      <c r="A69" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" ht="18.35" spans="1:4">
+      <c r="A70" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" ht="18.35" spans="1:4">
+      <c r="A71" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" ht="18.35" spans="1:4">
+      <c r="A72" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" ht="18.35" spans="1:4">
+      <c r="A73" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" ht="18.35" spans="1:4">
+      <c r="A74" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" ht="18.35" spans="1:4">
+      <c r="A75" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" ht="18.35" spans="1:4">
+      <c r="A76" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" ht="18.35" spans="1:4">
+      <c r="A77" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" ht="18.35" spans="1:4">
+      <c r="A78" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" ht="18.35" spans="1:4">
+      <c r="A79" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" ht="18.35" spans="1:4">
+      <c r="A80" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" ht="18.35" spans="1:4">
+      <c r="A81" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" ht="18.35" spans="1:4">
+      <c r="A82" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" ht="18.35" spans="1:4">
+      <c r="A83" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" ht="18.35" spans="1:4">
+      <c r="A84" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" ht="18.35" spans="1:4">
+      <c r="A85" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" ht="18.35" spans="1:4">
+      <c r="A86" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" ht="18.35" spans="1:4">
+      <c r="A87" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" ht="18.35" spans="1:4">
+      <c r="A88" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" ht="18.35" spans="1:4">
+      <c r="A89" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" ht="18.35" spans="1:4">
+      <c r="A90" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" ht="18.35" spans="1:4">
+      <c r="A91" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" ht="18.35" spans="1:4">
+      <c r="A92" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" ht="18.35" spans="1:4">
+      <c r="A93" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" ht="18.35" spans="1:4">
+      <c r="A94" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" ht="18.35" spans="1:4">
+      <c r="A95" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" ht="18.35" spans="1:4">
+      <c r="A96" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" ht="18.35" spans="1:4">
+      <c r="A97" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" ht="18.35" spans="1:4">
+      <c r="A98" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" ht="18.35" spans="1:4">
+      <c r="A99" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" ht="18.35" spans="1:4">
+      <c r="A100" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" ht="18.35" spans="1:4">
+      <c r="A101" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" ht="18.35" spans="1:4">
+      <c r="A102" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" ht="18.35" spans="1:4">
+      <c r="A103" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" ht="18.35" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" ht="18.35" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" ht="18.35" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" ht="18.35" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" ht="18.35" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" ht="18.35" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" ht="18.35" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" ht="18.35" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" ht="18.35" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" ht="18.35" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" ht="18.35" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" ht="18.35" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" ht="18.35" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" ht="18.35" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" ht="18.35" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" ht="18.35" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" ht="18.35" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" ht="18.35" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" ht="18.35" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" ht="18.35" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" ht="18.35" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" ht="18.35" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" ht="18.35" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" ht="18.35" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" ht="18.35" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" ht="18.35" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" ht="18.35" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" ht="18.35" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" ht="18.35" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" ht="18.35" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" ht="18.35" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" ht="18.35" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" ht="18.35" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" ht="18.35" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" ht="18.35" spans="1:4">
-      <c r="A71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="3" t="s">
+    </row>
+    <row r="104" ht="18.35" spans="1:4">
+      <c r="A104" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" ht="18.35" spans="1:4">
+      <c r="A105" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" ht="18.35" spans="1:4">
-      <c r="A72" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" ht="18.35" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" ht="18.35" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" ht="18.35" spans="1:4">
-      <c r="A75" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" ht="18.35" spans="1:4">
-      <c r="A76" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" ht="18.35" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" ht="18.35" spans="1:4">
-      <c r="A78" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" ht="18.35" spans="1:4">
-      <c r="A79" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" ht="18.35" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" ht="18.35" spans="1:4">
-      <c r="A81" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" ht="18.35" spans="1:4">
-      <c r="A82" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" ht="18.35" spans="1:4">
-      <c r="A83" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" ht="18.35" spans="1:4">
+      <c r="A106" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" ht="18.35" spans="1:4">
+      <c r="A107" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" ht="18.35" spans="1:4">
+      <c r="A108" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" ht="18.35" spans="1:4">
+      <c r="A109" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" ht="18.35" spans="1:4">
+      <c r="A110" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" ht="18.35" spans="1:4">
+      <c r="A111" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" ht="18.35" spans="1:4">
+      <c r="A112" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" ht="18.35" spans="1:4">
+      <c r="A113" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" ht="18.35" spans="1:4">
+      <c r="A114" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" ht="18.35" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" ht="18.35" spans="1:4">
+      <c r="A115" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" ht="18.35" spans="1:4">
+      <c r="A116" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" ht="18.35" spans="1:4">
-      <c r="A85" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" ht="18.35" spans="1:4">
-      <c r="A86" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" ht="18.35" spans="1:4">
-      <c r="A87" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" ht="18.35" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" ht="18.35" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" ht="18.35" spans="1:4">
-      <c r="A90" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" ht="18.35" spans="1:4">
-      <c r="A91" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" ht="18.35" spans="1:4">
-      <c r="A92" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" ht="18.35" spans="1:4">
-      <c r="A93" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" ht="18.35" spans="1:4">
-      <c r="A94" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" ht="18.35" spans="1:4">
-      <c r="A95" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" ht="18.35" spans="1:4">
-      <c r="A96" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" ht="18.35" spans="1:4">
+      <c r="A117" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" ht="18.35" spans="1:4">
+      <c r="A118" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" ht="18.35" spans="1:4">
+      <c r="A119" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" ht="18.35" spans="1:4">
+      <c r="A120" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" ht="18.35" spans="1:4">
+      <c r="A121" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" ht="18.35" spans="1:4">
+      <c r="A122" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" ht="18.35" spans="1:4">
-      <c r="A97" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" ht="18.35" spans="1:4">
+      <c r="A123" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" ht="18.35" spans="1:4">
-      <c r="A98" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" ht="18.35" spans="1:4">
+      <c r="A124" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" ht="18.35" spans="1:4">
+      <c r="A125" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" ht="18.35" spans="1:4">
-      <c r="A99" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" ht="18.35" spans="1:4">
+      <c r="A126" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" ht="18.35" spans="1:4">
+      <c r="A127" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" ht="18.35" spans="1:4">
-      <c r="A100" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" ht="18.35" spans="1:4">
-      <c r="A101" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" ht="18.35" spans="1:4">
-      <c r="A102" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" ht="18.35" spans="1:4">
-      <c r="A104" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" ht="18.35" spans="1:4">
-      <c r="A105" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" ht="18.35" spans="1:4">
+      <c r="A128" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" ht="18.35" spans="1:4">
-      <c r="A107" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108" ht="18.35" spans="1:4">
-      <c r="A108" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" ht="18.35" spans="1:4">
-      <c r="A109" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" ht="18.35" spans="1:4">
-      <c r="A110" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" ht="18.35" spans="1:4">
-      <c r="A111" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" ht="18.35" spans="1:4">
-      <c r="A112" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" ht="18.35" spans="1:4">
-      <c r="A113" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" ht="18.35" spans="1:4">
-      <c r="A114" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" ht="18.35" spans="1:4">
+      <c r="A129" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" ht="18.35" spans="1:4">
+      <c r="A130" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" ht="18.35" spans="1:4">
-      <c r="A115" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" ht="18.35" spans="1:4">
-      <c r="A116" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" ht="18.35" spans="1:4">
+      <c r="A131" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" ht="18.35" spans="1:4">
+      <c r="A132" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" ht="18.35" spans="1:4">
-      <c r="A117" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" ht="18.35" spans="1:4">
-      <c r="A118" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="120" ht="18.35" spans="1:4">
-      <c r="A120" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" ht="18.35" spans="1:4">
-      <c r="A121" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" ht="18.35" spans="1:4">
-      <c r="A122" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" ht="18.35" spans="1:4">
+      <c r="A133" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" ht="18.35" spans="1:4">
-      <c r="A123" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" ht="18.35" spans="1:4">
+      <c r="A134" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" ht="18.35" spans="1:4">
-      <c r="A124" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" ht="18.35" spans="1:4">
-      <c r="A125" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" ht="18.35" spans="1:4">
+      <c r="A135" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" ht="18.35" spans="1:4">
-      <c r="A126" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" ht="18.35" spans="1:4">
-      <c r="A127" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C127" s="3" t="s">
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" ht="18.35" spans="1:4">
+      <c r="A136" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" ht="18.35" spans="1:4">
-      <c r="A128" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" ht="18.35" spans="1:4">
+      <c r="A137" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" ht="18.35" spans="1:4">
+      <c r="A138" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" ht="18.35" spans="1:4">
+      <c r="A139" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" ht="18.35" spans="1:4">
+      <c r="A140" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" ht="18.35" spans="1:4">
+      <c r="A141" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" ht="18.35" spans="1:4">
+      <c r="A142" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" ht="18.35" spans="1:4">
+      <c r="A143" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" ht="18.35" spans="1:4">
+      <c r="A144" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" ht="18.35" spans="1:4">
+      <c r="A145" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" ht="18.35" spans="1:4">
+      <c r="A146" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" ht="18.35" spans="1:4">
+      <c r="A147" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" ht="18.35" spans="1:4">
+      <c r="A148" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" ht="18.35" spans="1:4">
+      <c r="A149" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" ht="18.35" spans="1:4">
-      <c r="A129" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" ht="18.35" spans="1:4">
-      <c r="A130" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" ht="18.35" spans="1:4">
+      <c r="A150" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" ht="18.35" spans="1:4">
+      <c r="A151" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" ht="18.35" spans="1:4">
+      <c r="A152" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" ht="18.35" spans="1:4">
+      <c r="A153" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" ht="18.35" spans="1:4">
+      <c r="A154" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" ht="18.35" spans="1:4">
+      <c r="A155" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" ht="18.35" spans="1:4">
-      <c r="A131" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" ht="18.35" spans="1:4">
-      <c r="A132" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" ht="18.35" spans="1:4">
-      <c r="A133" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" ht="18.35" spans="1:4">
-      <c r="A134" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" ht="18.35" spans="1:4">
-      <c r="A135" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" ht="18.35" spans="1:4">
-      <c r="A136" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" ht="18.35" spans="1:4">
-      <c r="A137" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" ht="18.35" spans="1:4">
-      <c r="A138" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" ht="18.35" spans="1:4">
-      <c r="A139" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" ht="18.35" spans="1:4">
-      <c r="A140" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" ht="18.35" spans="1:4">
-      <c r="A141" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" ht="18.35" spans="1:4">
-      <c r="A142" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" ht="18.35" spans="1:4">
-      <c r="A143" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" ht="18.35" spans="1:4">
-      <c r="A144" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" ht="18.35" spans="1:4">
-      <c r="A145" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" ht="18.35" spans="1:4">
-      <c r="A146" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" ht="18.35" spans="1:4">
-      <c r="A147" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" ht="18.35" spans="1:4">
-      <c r="A148" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" ht="18.35" spans="1:4">
-      <c r="A149" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" ht="18.35" spans="1:4">
-      <c r="A150" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" ht="18.35" spans="1:4">
-      <c r="A151" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" ht="18.35" spans="1:4">
-      <c r="A152" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" ht="18.35" spans="1:4">
-      <c r="A153" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" ht="18.35" spans="1:4">
-      <c r="A154" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" ht="18.35" spans="1:4">
-      <c r="A155" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D155" s="2"/>
+      <c r="D155" s="7"/>
     </row>
     <row r="156" ht="18.35" spans="1:4">
-      <c r="A156" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B156" s="2" t="s">
+      <c r="A156" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" s="2"/>
+      <c r="B156" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="7"/>
     </row>
     <row r="157" ht="18.35" spans="1:4">
-      <c r="A157" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B157" s="2" t="s">
+      <c r="A157" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="2"/>
+      <c r="B157" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="7"/>
     </row>
     <row r="158" ht="18.35" spans="1:4">
-      <c r="A158" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B158" s="2" t="s">
+      <c r="A158" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="2"/>
+      <c r="B158" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="7"/>
     </row>
     <row r="159" ht="18.35" spans="1:4">
-      <c r="A159" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B159" s="2" t="s">
+      <c r="A159" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="2"/>
+      <c r="B159" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" ht="18.35" spans="1:4">
-      <c r="A160" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B160" s="2" t="s">
+      <c r="A160" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="2"/>
+      <c r="B160" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="7"/>
     </row>
     <row r="161" ht="18.35" spans="1:4">
-      <c r="A161" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B161" s="2" t="s">
+      <c r="A161" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" s="2"/>
+      <c r="B161" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="7"/>
     </row>
     <row r="162" ht="18.35" spans="1:4">
-      <c r="A162" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B162" s="2" t="s">
+      <c r="A162" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="2"/>
+      <c r="B162" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="7"/>
     </row>
     <row r="163" ht="18.35" spans="1:4">
-      <c r="A163" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B163" s="2" t="s">
+      <c r="A163" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" s="2"/>
+      <c r="B163" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="7"/>
     </row>
     <row r="164" ht="18.35" spans="1:4">
-      <c r="A164" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B164" s="2" t="s">
+      <c r="A164" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" s="2"/>
+      <c r="B164" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="7"/>
     </row>
     <row r="165" ht="18.35" spans="1:4">
-      <c r="A165" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B165" s="2" t="s">
+      <c r="A165" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C165" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" s="2"/>
+      <c r="B165" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="7"/>
     </row>
     <row r="166" ht="18.35" spans="1:4">
-      <c r="A166" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B166" s="2" t="s">
+      <c r="A166" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" s="2"/>
+      <c r="B166" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="7"/>
     </row>
     <row r="167" ht="18.35" spans="1:4">
-      <c r="A167" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B167" s="2" t="s">
+      <c r="A167" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="2"/>
+      <c r="B167" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D167" s="7"/>
     </row>
     <row r="168" ht="18.35" spans="1:4">
-      <c r="A168" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B168" s="2" t="s">
+      <c r="A168" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="2"/>
+      <c r="B168" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D168" s="7"/>
     </row>
     <row r="169" ht="18.35" spans="1:4">
-      <c r="A169" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B169" s="2" t="s">
+      <c r="A169" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" s="2"/>
+      <c r="B169" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D169" s="7"/>
     </row>
     <row r="170" ht="18.35" spans="1:4">
-      <c r="A170" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B170" s="2" t="s">
+      <c r="A170" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="2"/>
+      <c r="B170" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D170" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4439,7 +4465,7 @@
     </row>
     <row r="2" ht="18.35" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
@@ -4449,10 +4475,10 @@
     </row>
     <row r="3" ht="18.35" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>36</v>
@@ -4461,10 +4487,10 @@
     </row>
     <row r="4" ht="18.35" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>36</v>
@@ -4473,24 +4499,24 @@
     </row>
     <row r="5" ht="18.35" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="18.35" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>36</v>
@@ -4499,10 +4525,10 @@
     </row>
     <row r="7" ht="18.35" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -4511,10 +4537,10 @@
     </row>
     <row r="8" ht="18.35" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -4523,24 +4549,24 @@
     </row>
     <row r="9" ht="18.35" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="18.35" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -4549,10 +4575,10 @@
     </row>
     <row r="11" ht="18.35" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -4561,10 +4587,10 @@
     </row>
     <row r="12" ht="18.35" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -4573,10 +4599,10 @@
     </row>
     <row r="13" ht="18.35" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -4585,10 +4611,10 @@
     </row>
     <row r="14" ht="18.35" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
@@ -4597,24 +4623,24 @@
     </row>
     <row r="15" ht="18.35" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="18.35" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -4623,10 +4649,10 @@
     </row>
     <row r="17" ht="18.35" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -4635,10 +4661,10 @@
     </row>
     <row r="18" ht="18.35" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -4647,10 +4673,10 @@
     </row>
     <row r="19" ht="18.35" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -4659,10 +4685,10 @@
     </row>
     <row r="20" ht="18.35" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -4671,10 +4697,10 @@
     </row>
     <row r="21" ht="18.35" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -4722,10 +4748,10 @@
     </row>
     <row r="2" ht="18.35" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -4734,10 +4760,10 @@
     </row>
     <row r="3" ht="18.35" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -4746,10 +4772,10 @@
     </row>
     <row r="4" ht="18.35" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -4758,10 +4784,10 @@
     </row>
     <row r="5" ht="18.35" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -4770,10 +4796,10 @@
     </row>
     <row r="6" ht="18.35" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -4782,10 +4808,10 @@
     </row>
     <row r="7" ht="18.35" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -4794,10 +4820,10 @@
     </row>
     <row r="8" ht="18.35" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -4806,10 +4832,10 @@
     </row>
     <row r="9" ht="18.35" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -4818,10 +4844,10 @@
     </row>
     <row r="10" ht="18.35" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -4830,10 +4856,10 @@
     </row>
     <row r="11" ht="18.35" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -4842,10 +4868,10 @@
     </row>
     <row r="12" ht="18.35" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -4854,10 +4880,10 @@
     </row>
     <row r="13" ht="18.35" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -4866,10 +4892,10 @@
     </row>
     <row r="14" ht="18.35" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
